--- a/src/main/resources/template/excel/export/storeChargeMainImportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainImportTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>费用代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -36,14 +36,17 @@
     <t>租金费用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -132,24 +135,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -845,36 +848,36 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="14.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>101005001</v>
+      <c r="A2" s="8" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>12.23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
